--- a/20170721周报/技术支撑服务人员周报日报-20170721.xlsx
+++ b/20170721周报/技术支撑服务人员周报日报-20170721.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
   <si>
     <t>项目名称</t>
   </si>
@@ -102,6 +102,16 @@
   </si>
   <si>
     <t>周小龙</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档代码</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1完成20170720内容的小组的版本负责
+2辅助其他组员开发需求
+3上线支撑</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -572,7 +582,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G16" sqref="G15:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -721,7 +731,7 @@
       <c r="G7" s="9"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="52.2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
@@ -734,10 +744,18 @@
       <c r="D8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="6"/>
+      <c r="E8" s="5">
+        <v>42933</v>
+      </c>
+      <c r="F8" s="5">
+        <v>42937</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">

--- a/20170721周报/技术支撑服务人员周报日报-20170721.xlsx
+++ b/20170721周报/技术支撑服务人员周报日报-20170721.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="25">
   <si>
     <t>项目名称</t>
   </si>
@@ -78,14 +78,6 @@
   </si>
   <si>
     <t>咪咕音乐后台</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>咪咕音乐后台</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>咪咕音乐运维系统</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -582,7 +574,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G16" sqref="G15:G16"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -625,7 +617,7 @@
     </row>
     <row r="2" spans="1:8" ht="49.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>8</v>
@@ -643,13 +635,13 @@
     </row>
     <row r="3" spans="1:8" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>11</v>
@@ -661,7 +653,7 @@
     </row>
     <row r="4" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>8</v>
@@ -677,9 +669,9 @@
       <c r="G4" s="8"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>8</v>
@@ -695,9 +687,9 @@
       <c r="G5" s="9"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>8</v>
@@ -713,9 +705,9 @@
       <c r="G6" s="8"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>8</v>
@@ -751,10 +743,10 @@
         <v>42937</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
@@ -765,7 +757,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>10</v>
@@ -783,7 +775,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>10</v>
@@ -801,7 +793,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>10</v>

--- a/20170721周报/技术支撑服务人员周报日报-20170721.xlsx
+++ b/20170721周报/技术支撑服务人员周报日报-20170721.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="396" windowWidth="18084" windowHeight="6420"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
   <si>
     <t>项目名称</t>
   </si>
@@ -43,6 +43,9 @@
     <t>输出物</t>
   </si>
   <si>
+    <t>咪咕音乐后台</t>
+  </si>
+  <si>
     <t>刘韬</t>
   </si>
   <si>
@@ -52,12 +55,13 @@
     <t>北京烽火</t>
   </si>
   <si>
-    <t>北京烽火</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>我是</t>
+  </si>
+  <si>
+    <t>杜智恒</t>
   </si>
   <si>
     <t>凌河源</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>陆晨曦</t>
@@ -66,52 +70,43 @@
     <t>赵小平</t>
   </si>
   <si>
+    <t>陈毅昌</t>
+  </si>
+  <si>
     <t>王琪</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>陈毅昌</t>
-  </si>
-  <si>
-    <t>咪咕音乐后台</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>杜智恒</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>范小燕</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>罗健</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>周小龙</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>文档代码</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>1完成20170720内容的小组的版本负责
 2辅助其他组员开发需求
 3上线支撑</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档代码</t>
+  </si>
+  <si>
+    <t>范小燕</t>
+  </si>
+  <si>
+    <t>罗健</t>
+  </si>
+  <si>
+    <t>周小龙</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,38 +141,168 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -186,12 +311,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -225,18 +536,266 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -250,31 +809,72 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -292,7 +892,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -565,301 +1165,304 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.77734375" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" customWidth="1"/>
-    <col min="6" max="6" width="23.109375" customWidth="1"/>
-    <col min="7" max="7" width="48.44140625" customWidth="1"/>
-    <col min="8" max="8" width="53.77734375" customWidth="1"/>
+    <col min="1" max="1" width="16.3333333333333" customWidth="1"/>
+    <col min="2" max="2" width="11.4416666666667" customWidth="1"/>
+    <col min="3" max="3" width="15.6666666666667" customWidth="1"/>
+    <col min="4" max="4" width="15.775" customWidth="1"/>
+    <col min="5" max="5" width="21.6666666666667" customWidth="1"/>
+    <col min="6" max="6" width="23.1083333333333" customWidth="1"/>
+    <col min="7" max="7" width="48.4416666666667" customWidth="1"/>
+    <col min="8" max="8" width="53.775" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="49.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" ht="49.2" customHeight="1" spans="1:8">
+      <c r="A2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" ht="34.8" customHeight="1" spans="1:8">
+      <c r="A3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" ht="17.25" spans="1:8">
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" ht="17.25" spans="1:8">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" ht="17.25" spans="1:8">
+      <c r="A6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" ht="17.25" spans="1:8">
+      <c r="A7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" ht="51.75" spans="1:8">
+      <c r="A8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="7">
+        <v>42933</v>
+      </c>
+      <c r="F8" s="7">
+        <v>42937</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" ht="17.25" spans="1:8">
+      <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="1:8" ht="34.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" ht="17.25" spans="1:8">
+      <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="B10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" ht="17.25" spans="1:8">
+      <c r="A11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="3" t="s">
+      <c r="B11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="6"/>
-    </row>
-    <row r="5" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:8" ht="52.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="5">
-        <v>42933</v>
-      </c>
-      <c r="F8" s="5">
-        <v>42937</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="6"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="9"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A11"/>
+      <selection activeCell="A1" sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A11"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/20170721周报/技术支撑服务人员周报日报-20170721.xlsx
+++ b/20170721周报/技术支撑服务人员周报日报-20170721.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\周报\weekReport\20170721周报\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="26">
   <si>
     <t>项目名称</t>
   </si>
@@ -94,19 +99,22 @@
   </si>
   <si>
     <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
+  </si>
+  <si>
+    <t>1、接口调用对象返回码转换通用模块需求上线及验证
+2、流量充值后台发放控制需求上线及验证
+3、总部校园营销活动获取验证码接口开发
+4、总部校园营销活动领取奖品接口开发
+5、总部校园营销活动定时任务逻辑开发
+6、测试上述接口并解决问题</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,7 +125,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -128,6 +142,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
@@ -141,168 +161,26 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -311,198 +189,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -536,255 +228,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -796,89 +246,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 3" xfId="50"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 3" xfId="2"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -892,7 +296,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1165,57 +569,58 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.3333333333333" customWidth="1"/>
-    <col min="2" max="2" width="11.4416666666667" customWidth="1"/>
-    <col min="3" max="3" width="15.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="15.775" customWidth="1"/>
-    <col min="5" max="5" width="21.6666666666667" customWidth="1"/>
-    <col min="6" max="6" width="23.1083333333333" customWidth="1"/>
-    <col min="7" max="7" width="48.4416666666667" customWidth="1"/>
-    <col min="8" max="8" width="53.775" customWidth="1"/>
+    <col min="1" max="1" width="16.375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="10" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="10" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="10" customWidth="1"/>
+    <col min="6" max="6" width="23.125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="48.5" style="10" customWidth="1"/>
+    <col min="8" max="8" width="53.75" style="10" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:8">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="49.2" customHeight="1" spans="1:8">
+    <row r="2" spans="1:8" ht="49.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
@@ -1235,7 +640,7 @@
       </c>
       <c r="H2" s="9"/>
     </row>
-    <row r="3" ht="34.8" customHeight="1" spans="1:8">
+    <row r="3" spans="1:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
@@ -1253,7 +658,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
     </row>
-    <row r="4" ht="17.25" spans="1:8">
+    <row r="4" spans="1:8" ht="103.5" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -1268,10 +673,12 @@
       </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
-      <c r="G4" s="10"/>
+      <c r="G4" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="H4" s="9"/>
     </row>
-    <row r="5" ht="17.25" spans="1:8">
+    <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
@@ -1289,7 +696,7 @@
       <c r="G5" s="8"/>
       <c r="H5" s="9"/>
     </row>
-    <row r="6" ht="17.25" spans="1:8">
+    <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
@@ -1304,10 +711,10 @@
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="10"/>
+      <c r="G6" s="8"/>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" ht="17.25" spans="1:8">
+    <row r="7" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
@@ -1325,7 +732,7 @@
       <c r="G7" s="8"/>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" ht="51.75" spans="1:8">
+    <row r="8" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
@@ -1351,7 +758,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" ht="17.25" spans="1:8">
+    <row r="9" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -1366,10 +773,10 @@
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="10"/>
+      <c r="G9" s="8"/>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" ht="17.25" spans="1:8">
+    <row r="10" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -1384,10 +791,10 @@
       </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="10"/>
+      <c r="G10" s="8"/>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" ht="17.25" spans="1:8">
+    <row r="11" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>8</v>
       </c>
@@ -1402,67 +809,66 @@
       </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
-      <c r="G11" s="10"/>
+      <c r="G11" s="8"/>
       <c r="H11" s="9"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A11"/>
+      <selection sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A11"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/20170721周报/技术支撑服务人员周报日报-20170721.xlsx
+++ b/20170721周报/技术支撑服务人员周报日报-20170721.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\周报\weekReport\20170721周报\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <t>项目名称</t>
   </si>
@@ -60,45 +55,13 @@
     <t>北京烽火</t>
   </si>
   <si>
-    <t>我是</t>
+    <t>1，测试MV,专辑，歌曲优化查询效率，改为从缓存中拿取数据                                                                  2，上线支撑</t>
   </si>
   <si>
     <t>杜智恒</t>
   </si>
   <si>
     <t>凌河源</t>
-  </si>
-  <si>
-    <t>陆晨曦</t>
-  </si>
-  <si>
-    <t>赵小平</t>
-  </si>
-  <si>
-    <t>陈毅昌</t>
-  </si>
-  <si>
-    <t>王琪</t>
-  </si>
-  <si>
-    <t>1完成20170720内容的小组的版本负责
-2辅助其他组员开发需求
-3上线支撑</t>
-  </si>
-  <si>
-    <t>文档代码</t>
-  </si>
-  <si>
-    <t>范小燕</t>
-  </si>
-  <si>
-    <t>罗健</t>
-  </si>
-  <si>
-    <t>周小龙</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
   </si>
   <si>
     <t>1、接口调用对象返回码转换通用模块需求上线及验证
@@ -107,14 +70,51 @@
 4、总部校园营销活动领取奖品接口开发
 5、总部校园营销活动定时任务逻辑开发
 6、测试上述接口并解决问题</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆晨曦</t>
+  </si>
+  <si>
+    <t>赵小平</t>
+  </si>
+  <si>
+    <t>陈毅昌</t>
+  </si>
+  <si>
+    <t>王琪</t>
+  </si>
+  <si>
+    <t>1完成20170720内容的小组的版本负责
+2辅助其他组员开发需求
+3上线支撑</t>
+  </si>
+  <si>
+    <t>文档代码</t>
+  </si>
+  <si>
+    <t>范小燕</t>
+  </si>
+  <si>
+    <t>罗健</t>
+  </si>
+  <si>
+    <t>周小龙</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,13 +125,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -142,12 +136,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
@@ -170,17 +158,153 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -189,12 +313,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -228,13 +538,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -246,43 +798,87 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -296,7 +892,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -569,306 +1165,307 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="16.375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="10" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="15.75" style="10" customWidth="1"/>
-    <col min="5" max="5" width="21.625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="48.5" style="10" customWidth="1"/>
-    <col min="8" max="8" width="53.75" style="10" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="16.375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="48.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="53.75" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="49.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+    <row r="2" ht="66" customHeight="1" spans="1:8">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="9"/>
-    </row>
-    <row r="3" spans="1:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" ht="34.9" customHeight="1" spans="1:8">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9"/>
-    </row>
-    <row r="4" spans="1:8" ht="103.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" ht="103.5" spans="1:8">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="9"/>
-    </row>
-    <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" ht="17.25" spans="1:8">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="C5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
-    </row>
-    <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" ht="17.25" spans="1:8">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" ht="17.25" spans="1:8">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="C7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
-    </row>
-    <row r="8" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" ht="51.75" spans="1:8">
+      <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="C8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="8">
         <v>42933</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="8">
         <v>42937</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="9" t="s">
+      <c r="G8" s="9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
+      <c r="H8" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" ht="17.25" spans="1:8">
+      <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" ht="17.25" spans="1:8">
+      <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" ht="17.25" spans="1:8">
+      <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="9"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="10"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A11"/>
+      <selection activeCell="A1" sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1">
       <c r="A3" s="2"/>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1">
       <c r="A5" s="2"/>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:1">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:1">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:1">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:1">
       <c r="A11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A11"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/20170721周报/技术支撑服务人员周报日报-20170721.xlsx
+++ b/20170721周报/技术支撑服务人员周报日报-20170721.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\周报\weekReport\20170721周报\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
   <si>
     <t>项目名称</t>
   </si>
@@ -67,38 +62,6 @@
   </si>
   <si>
     <t>凌河源</t>
-  </si>
-  <si>
-    <t>陆晨曦</t>
-  </si>
-  <si>
-    <t>赵小平</t>
-  </si>
-  <si>
-    <t>陈毅昌</t>
-  </si>
-  <si>
-    <t>王琪</t>
-  </si>
-  <si>
-    <t>1完成20170720内容的小组的版本负责
-2辅助其他组员开发需求
-3上线支撑</t>
-  </si>
-  <si>
-    <t>文档代码</t>
-  </si>
-  <si>
-    <t>范小燕</t>
-  </si>
-  <si>
-    <t>罗健</t>
-  </si>
-  <si>
-    <t>周小龙</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
   </si>
   <si>
     <t>1、接口调用对象返回码转换通用模块需求上线及验证
@@ -107,14 +70,55 @@
 4、总部校园营销活动领取奖品接口开发
 5、总部校园营销活动定时任务逻辑开发
 6、测试上述接口并解决问题</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆晨曦</t>
+  </si>
+  <si>
+    <t>赵小平</t>
+  </si>
+  <si>
+    <t>陈毅昌</t>
+  </si>
+  <si>
+    <t>1.对上一周开发的代码进行测试，并完成上线。
+2.在springboot和springcloud环境下迁移代码</t>
+  </si>
+  <si>
+    <t>文档代码</t>
+  </si>
+  <si>
+    <t>王琪</t>
+  </si>
+  <si>
+    <t>1完成20170720内容的小组的版本负责
+2辅助其他组员开发需求
+3上线支撑</t>
+  </si>
+  <si>
+    <t>范小燕</t>
+  </si>
+  <si>
+    <t>罗健</t>
+  </si>
+  <si>
+    <t>周小龙</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,13 +129,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -142,12 +140,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
@@ -167,20 +159,156 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -189,12 +317,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -228,17 +542,259 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -246,43 +802,90 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -574,301 +1177,311 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="16.375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="10" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="15.75" style="10" customWidth="1"/>
-    <col min="5" max="5" width="21.625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="48.5" style="10" customWidth="1"/>
-    <col min="8" max="8" width="53.75" style="10" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="16.375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="48.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="53.75" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="49.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+    <row r="2" ht="49.15" customHeight="1" spans="1:8">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="9"/>
-    </row>
-    <row r="3" spans="1:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" ht="34.9" customHeight="1" spans="1:8">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9"/>
-    </row>
-    <row r="4" spans="1:8" ht="103.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" ht="103.5" spans="1:8">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8" t="s">
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" ht="17.25" spans="1:8">
+      <c r="A5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" ht="17.25" spans="1:8">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" ht="62" customHeight="1" spans="1:8">
+      <c r="A7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="8">
+        <v>42933</v>
+      </c>
+      <c r="F7" s="8">
+        <v>42937</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" ht="51.75" spans="1:8">
+      <c r="A8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="8">
+        <v>42933</v>
+      </c>
+      <c r="F8" s="8">
+        <v>42937</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" ht="17.25" spans="1:8">
+      <c r="A9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" ht="17.25" spans="1:8">
+      <c r="A10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" ht="17.25" spans="1:8">
+      <c r="A11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="9"/>
-    </row>
-    <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="D11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
-    </row>
-    <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="9"/>
-    </row>
-    <row r="8" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="7">
-        <v>42933</v>
-      </c>
-      <c r="F8" s="7">
-        <v>42937</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="9"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="10"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A11"/>
+      <selection activeCell="A1" sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1">
       <c r="A3" s="2"/>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1">
       <c r="A5" s="2"/>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:1">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:1">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:1">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:1">
       <c r="A11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A11"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/20170721周报/技术支撑服务人员周报日报-20170721.xlsx
+++ b/20170721周报/技术支撑服务人员周报日报-20170721.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
   <si>
     <t>项目名称</t>
   </si>
@@ -55,7 +55,11 @@
     <t>北京烽火</t>
   </si>
   <si>
-    <t>我是</t>
+    <t>1.测试MV,专辑,歌曲查询优化功能
+2.上线支持</t>
+  </si>
+  <si>
+    <t>，</t>
   </si>
   <si>
     <t>杜智恒</t>
@@ -113,10 +117,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -159,41 +163,60 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,32 +238,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -261,13 +276,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -283,32 +311,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -323,187 +327,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,11 +541,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -555,8 +559,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -617,6 +621,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -625,31 +638,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -658,136 +656,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -899,7 +897,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1172,17 +1170,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1242,7 +1239,9 @@
       <c r="G2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="10"/>
+      <c r="H2" s="10" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" ht="34.9" customHeight="1" spans="1:8">
       <c r="A3" s="6" t="s">
@@ -1252,7 +1251,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>11</v>
@@ -1270,7 +1269,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>11</v>
@@ -1278,7 +1277,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H4" s="10"/>
     </row>
@@ -1290,7 +1289,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>11</v>
@@ -1308,7 +1307,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>11</v>
@@ -1326,7 +1325,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>11</v>
@@ -1338,10 +1337,10 @@
         <v>42937</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" ht="51.75" spans="1:8">
@@ -1352,7 +1351,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>11</v>
@@ -1364,10 +1363,10 @@
         <v>42937</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" ht="17.25" spans="1:8">
@@ -1378,7 +1377,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>11</v>
@@ -1396,7 +1395,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>11</v>
@@ -1414,7 +1413,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>11</v>
@@ -1432,7 +1431,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:A11"/>
   <sheetViews>
@@ -1444,7 +1443,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/20170721周报/技术支撑服务人员周报日报-20170721.xlsx
+++ b/20170721周报/技术支撑服务人员周报日报-20170721.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\weekReport\20170721周报\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="21255" windowHeight="7830"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
   <si>
     <t>项目名称</t>
   </si>
@@ -87,6 +82,16 @@
     <t>赵小平</t>
   </si>
   <si>
+    <t xml:space="preserve">1.完成总部校园营销活动获取验证码接口开发
+2.完成总部校园营销活动领取奖品接口开发
+3.完成总部校园营销活动定时任务逻辑开发
+4.测试上述接口并解决问题
+</t>
+  </si>
+  <si>
+    <t>代码、文档</t>
+  </si>
+  <si>
     <t>陈毅昌</t>
   </si>
   <si>
@@ -111,22 +116,27 @@
     <t>罗健</t>
   </si>
   <si>
-    <t>周小龙</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
-  </si>
-  <si>
     <t>1.MIGU2.0内容组件业务相关框架迁移工作；
 2.热门活动异省访问问题排查解决；</t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>周小龙</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,24 +178,155 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -194,12 +335,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -233,18 +560,266 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -271,26 +846,64 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -577,318 +1190,327 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="16.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="48.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="53.75" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="16.375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="48.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="53.75" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="49.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+    <row r="2" ht="49.15" customHeight="1" spans="1:8">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="34.9" customHeight="1" spans="1:8">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4" spans="1:8" ht="103.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" ht="103.5" spans="1:8">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7" t="s">
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" ht="17.25" spans="1:8">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" ht="71.25" spans="1:8">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="1:8" ht="62.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
+      <c r="E6" s="8">
+        <v>42933</v>
+      </c>
+      <c r="F6" s="8">
+        <v>42937</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" ht="62.1" customHeight="1" spans="1:8">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="C7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="8">
         <v>42933</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="8">
         <v>42937</v>
       </c>
-      <c r="G7" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
+      <c r="G7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" ht="51.75" spans="1:8">
+      <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="C8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="8">
         <v>42933</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="8">
         <v>42937</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
+    </row>
+    <row r="9" ht="17.25" spans="1:8">
+      <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="C9" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" ht="34.5" spans="1:8">
+      <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="C10" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="7" t="s">
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="8"/>
-    </row>
-    <row r="11" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" ht="17.25" spans="1:8">
+      <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="C11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="10"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A11"/>
+      <selection activeCell="A1" sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="12"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="12"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="12"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="12"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="12"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="12"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="12"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="12"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="12"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="12"/>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A11"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/20170721周报/技术支撑服务人员周报日报-20170721.xlsx
+++ b/20170721周报/技术支撑服务人员周报日报-20170721.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="21255" windowHeight="7830"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
   <si>
     <t>项目名称</t>
   </si>
@@ -113,6 +113,11 @@
     <t>范小燕</t>
   </si>
   <si>
+    <t>1.修改歌单首页筛选取数逻辑
+2.测试20号上线自己修改的功能是否实现
+3.分配的迁代码任务</t>
+  </si>
+  <si>
     <t>罗健</t>
   </si>
   <si>
@@ -131,10 +136,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -178,20 +183,61 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -209,29 +255,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,11 +269,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -269,8 +300,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -278,55 +324,14 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -341,37 +346,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,37 +508,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,103 +520,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -561,17 +560,44 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -591,46 +617,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -652,9 +649,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -664,10 +663,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -676,136 +675,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1198,8 +1197,8 @@
   <sheetPr/>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1397,7 +1396,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" ht="17.25" spans="1:8">
+    <row r="9" ht="44" customHeight="1" spans="1:8">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
@@ -1410,10 +1409,18 @@
       <c r="D9" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="10"/>
+      <c r="E9" s="8">
+        <v>42933</v>
+      </c>
+      <c r="F9" s="8">
+        <v>42937</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="10" ht="34.5" spans="1:8">
       <c r="A10" s="6" t="s">
@@ -1423,7 +1430,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>11</v>
@@ -1431,7 +1438,7 @@
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H10" s="10"/>
     </row>
@@ -1443,7 +1450,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>11</v>
@@ -1473,7 +1480,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/20170721周报/技术支撑服务人员周报日报-20170721.xlsx
+++ b/20170721周报/技术支撑服务人员周报日报-20170721.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\周报\weekReport\20170721周报\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
   <si>
     <t>项目名称</t>
   </si>
@@ -70,77 +65,13 @@
     <t>杜智恒</t>
   </si>
   <si>
-    <t>凌河源</t>
-  </si>
-  <si>
-    <t>1、接口调用对象返回码转换通用模块需求上线及验证
-2、流量充值后台发放控制需求上线及验证
-3、总部校园营销活动获取验证码接口开发
-4、总部校园营销活动领取奖品接口开发
-5、总部校园营销活动定时任务逻辑开发
-6、测试上述接口并解决问题</t>
-  </si>
-  <si>
-    <t>陆晨曦</t>
-  </si>
-  <si>
-    <t>赵小平</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.完成总部校园营销活动获取验证码接口开发
-2.完成总部校园营销活动领取奖品接口开发
-3.完成总部校园营销活动定时任务逻辑开发
-4.测试上述接口并解决问题
-</t>
-  </si>
-  <si>
-    <t>代码、文档</t>
-  </si>
-  <si>
-    <t>陈毅昌</t>
-  </si>
-  <si>
-    <t>1.对上一周开发的代码进行测试，并完成上线。
-2.在springboot和springcloud环境下迁移代码</t>
-  </si>
-  <si>
-    <t>文档代码</t>
-  </si>
-  <si>
-    <t>王琪</t>
-  </si>
-  <si>
-    <t>1完成20170720内容的小组的版本负责
-2辅助其他组员开发需求
-3上线支撑</t>
-  </si>
-  <si>
-    <t>范小燕</t>
-  </si>
-  <si>
-    <t>1.修改歌单首页筛选取数逻辑
-2.测试20号上线自己修改的功能是否实现
-3.分配的迁代码任务</t>
-  </si>
-  <si>
-    <t>罗健</t>
-  </si>
-  <si>
-    <t>1.MIGU2.0内容组件业务相关框架迁移工作；
-2.热门活动异省访问问题排查解决；</t>
-  </si>
-  <si>
-    <t>周小龙</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
-  </si>
-  <si>
-    <t>1.playlist相关接口重写和问题排查</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>1</t>
     </r>
     <r>
@@ -148,30 +79,98 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>.尝试iputils 对请求IP进行二进制的位运算转换。     2.把转换的数值 和黑白IP名单参数进行比较。</t>
     </r>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码</t>
+  </si>
+  <si>
+    <t>凌河源</t>
+  </si>
+  <si>
+    <t>1、接口调用对象返回码转换通用模块需求上线及验证
+2、流量充值后台发放控制需求上线及验证
+3、总部校园营销活动获取验证码接口开发
+4、总部校园营销活动领取奖品接口开发
+5、总部校园营销活动定时任务逻辑开发
+6、测试上述接口并解决问题</t>
+  </si>
+  <si>
+    <t>陆晨曦</t>
+  </si>
+  <si>
+    <t>1.playlist相关接口重写和问题排查</t>
+  </si>
+  <si>
+    <t>赵小平</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.完成总部校园营销活动获取验证码接口开发
+2.完成总部校园营销活动领取奖品接口开发
+3.完成总部校园营销活动定时任务逻辑开发
+4.测试上述接口并解决问题
+</t>
+  </si>
+  <si>
+    <t>代码、文档</t>
+  </si>
+  <si>
+    <t>陈毅昌</t>
+  </si>
+  <si>
+    <t>1.对上一周开发的代码进行测试，并完成上线。
+2.在springboot和springcloud环境下迁移代码</t>
+  </si>
+  <si>
+    <t>王琪</t>
+  </si>
+  <si>
+    <t>1完成20170720内容的小组的版本负责
+2辅助其他组员开发需求
+3上线支撑</t>
   </si>
   <si>
     <t>文档代码</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>代码</t>
+  </si>
+  <si>
+    <t>范小燕</t>
+  </si>
+  <si>
+    <t>1.修改歌单首页筛选取数逻辑
+2.测试20号上线自己修改的功能是否实现
+3.分配的迁代码任务</t>
+  </si>
+  <si>
+    <t>罗健</t>
+  </si>
+  <si>
+    <t>1.MIGU2.0内容组件业务相关框架迁移工作；
+2.热门活动异省访问问题排查解决；</t>
+  </si>
+  <si>
+    <t>周小龙</t>
   </si>
   <si>
     <t xml:space="preserve">1.播放列表相关接口问题排查测试                                                                     </t>
-    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,40 +211,169 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -254,12 +382,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -293,18 +607,266 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -325,38 +887,76 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -648,345 +1248,347 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="16.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="48.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="53.75" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="16.375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="48.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="53.75" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="49.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+    <row r="2" ht="49.15" customHeight="1" spans="1:8">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="7" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="34.9" customHeight="1" spans="1:8">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
       <c r="G3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" ht="103.5" spans="1:8">
+      <c r="A4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" ht="17.25" spans="1:8">
+      <c r="A5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="8">
+        <v>42933</v>
+      </c>
+      <c r="F5" s="8">
+        <v>42937</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" ht="71.25" spans="1:8">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="8">
+        <v>42933</v>
+      </c>
+      <c r="F6" s="8">
+        <v>42937</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" ht="62.1" customHeight="1" spans="1:8">
+      <c r="A7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="8">
+        <v>42933</v>
+      </c>
+      <c r="F7" s="8">
+        <v>42937</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" ht="51.75" spans="1:8">
+      <c r="A8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="8">
+        <v>42933</v>
+      </c>
+      <c r="F8" s="8">
+        <v>42937</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" ht="44.1" customHeight="1" spans="1:8">
+      <c r="A9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="8">
+        <v>42933</v>
+      </c>
+      <c r="F9" s="8">
+        <v>42937</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" ht="34.5" spans="1:8">
+      <c r="A10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" ht="17.25" spans="1:8">
+      <c r="A11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="103.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="D11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="6">
+      <c r="E11" s="8">
         <v>42933</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F11" s="8">
         <v>42937</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" spans="1:8" ht="71.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="6">
-        <v>42933</v>
-      </c>
-      <c r="F6" s="6">
-        <v>42937</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="62.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="6">
-        <v>42933</v>
-      </c>
-      <c r="F7" s="6">
-        <v>42937</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="12" t="s">
+      <c r="G11" s="11" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="6">
-        <v>42933</v>
-      </c>
-      <c r="F8" s="6">
-        <v>42937</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="44.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="6">
-        <v>42933</v>
-      </c>
-      <c r="F9" s="6">
-        <v>42937</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="8"/>
-    </row>
-    <row r="11" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="6">
-        <v>42933</v>
-      </c>
-      <c r="F11" s="6">
-        <v>42937</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="8"/>
+      <c r="H11" s="10"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A11"/>
+      <selection activeCell="A1" sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="14"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="14"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="14"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="14"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="14"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="14"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="14"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="14"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="14"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="14"/>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A11"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/20170721周报/技术支撑服务人员周报日报-20170721.xlsx
+++ b/20170721周报/技术支撑服务人员周报日报-20170721.xlsx
@@ -14,6 +14,39 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>bolin</author>
+  </authors>
+  <commentList>
+    <comment ref="H2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>bolin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+文档见附件
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
   <si>
@@ -59,7 +92,7 @@
 2.上线支持</t>
   </si>
   <si>
-    <t>，</t>
+    <t>代码和文档</t>
   </si>
   <si>
     <t>杜智恒</t>
@@ -165,12 +198,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -211,19 +244,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -233,6 +253,51 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,8 +319,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -269,80 +365,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -366,14 +388,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -388,181 +408,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -638,6 +652,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -664,35 +693,20 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -711,10 +725,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -723,143 +737,143 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -887,14 +901,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -962,6 +970,93 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>4090035</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>232410</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>213995</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1027" name="Object 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1027"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="15710535" y="381000"/>
+              <a:ext cx="923925" cy="838200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>677545</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>229870</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>213995</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1028" name="Object 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1028"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="16393795" y="381000"/>
+              <a:ext cx="923925" cy="838200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -970,7 +1065,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1243,17 +1338,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1308,8 +1402,12 @@
       <c r="D2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="E2" s="8">
+        <v>42933</v>
+      </c>
+      <c r="F2" s="8">
+        <v>42937</v>
+      </c>
       <c r="G2" s="9" t="s">
         <v>12</v>
       </c>
@@ -1332,7 +1430,7 @@
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="9" t="s">
         <v>15</v>
       </c>
       <c r="H3" s="10" t="s">
@@ -1428,10 +1526,10 @@
       <c r="F7" s="8">
         <v>42937</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="10" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1468,7 +1566,7 @@
       <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="12" t="s">
         <v>29</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -1514,7 +1612,7 @@
       <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="12" t="s">
         <v>33</v>
       </c>
       <c r="D11" s="6" t="s">
@@ -1526,7 +1624,7 @@
       <c r="F11" s="8">
         <v>42937</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="9" t="s">
         <v>34</v>
       </c>
       <c r="H11" s="10"/>
@@ -1535,11 +1633,65 @@
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject shapeId="1027" progId="Word.Document.8" r:id="rId4" dvAspect="DVASPECT_ICON">
+          <objectPr defaultSize="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>4090035</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>9</xdr:col>
+                <xdr:colOff>232410</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>213995</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject shapeId="1027" progId="Word.Document.8" r:id="rId4" dvAspect="DVASPECT_ICON"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject shapeId="1028" progId="Word.Document.8" r:id="rId6" dvAspect="DVASPECT_ICON">
+          <objectPr defaultSize="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>677545</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>229870</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>213995</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject shapeId="1028" progId="Word.Document.8" r:id="rId6" dvAspect="DVASPECT_ICON"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:A11"/>
   <sheetViews>

--- a/20170721周报/技术支撑服务人员周报日报-20170721.xlsx
+++ b/20170721周报/技术支撑服务人员周报日报-20170721.xlsx
@@ -18,6 +18,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>bolin</author>
+    <author>root</author>
   </authors>
   <commentList>
     <comment ref="H2" authorId="0">
@@ -43,6 +44,29 @@
         </r>
       </text>
     </comment>
+    <comment ref="H7" authorId="1">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>root:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+该文档可直接打开
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -198,10 +222,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -245,17 +269,76 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -266,7 +349,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,8 +379,31 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,103 +416,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -408,37 +432,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,139 +606,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -622,6 +646,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -633,6 +692,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -652,26 +720,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -690,45 +743,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -737,136 +761,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -977,15 +1001,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>4090035</xdr:colOff>
+          <xdr:colOff>2002790</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>67310</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>9</xdr:col>
-          <xdr:colOff>232410</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>213995</xdr:rowOff>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>2926715</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>905510</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
@@ -1000,7 +1024,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="15710535" y="381000"/>
+              <a:off x="13623290" y="448310"/>
               <a:ext cx="923925" cy="838200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1017,16 +1041,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>8</xdr:col>
-          <xdr:colOff>677545</xdr:colOff>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>3027680</xdr:colOff>
           <xdr:row>1</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:rowOff>78740</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>10</xdr:col>
-          <xdr:colOff>229870</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>213995</xdr:rowOff>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>3951605</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>916940</xdr:rowOff>
         </xdr:to>
         <xdr:sp>
           <xdr:nvSpPr>
@@ -1041,7 +1065,48 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="16393795" y="381000"/>
+              <a:off x="14648180" y="459740"/>
+              <a:ext cx="923925" cy="838200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>2077720</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>38735</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>3001645</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>876935</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1029" name="Object 5" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1029"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13698220" y="4266565"/>
               <a:ext cx="923925" cy="838200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -1065,7 +1130,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1338,16 +1403,17 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1360,7 +1426,8 @@
     <col min="6" max="6" width="23.125" style="4" customWidth="1"/>
     <col min="7" max="7" width="48.5" style="4" customWidth="1"/>
     <col min="8" max="8" width="53.75" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="4"/>
+    <col min="9" max="9" width="22.7833333333333" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:8">
@@ -1389,7 +1456,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="49.15" customHeight="1" spans="1:8">
+    <row r="2" ht="76" customHeight="1" spans="1:8">
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
@@ -1507,7 +1574,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" ht="62.1" customHeight="1" spans="1:8">
+    <row r="7" ht="76" customHeight="1" spans="1:8">
       <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
@@ -1530,7 +1597,7 @@
         <v>25</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" ht="51.75" spans="1:8">
@@ -1643,15 +1710,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>7</xdr:col>
-                <xdr:colOff>4090035</xdr:colOff>
+                <xdr:colOff>2002790</xdr:colOff>
                 <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:rowOff>67310</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>9</xdr:col>
-                <xdr:colOff>232410</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>213995</xdr:rowOff>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>2926715</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>905510</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -1667,16 +1734,16 @@
           <objectPr defaultSize="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>677545</xdr:colOff>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>3027680</xdr:colOff>
                 <xdr:row>1</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
+                <xdr:rowOff>78740</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>10</xdr:col>
-                <xdr:colOff>229870</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>213995</xdr:rowOff>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>3951605</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>916940</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -1686,12 +1753,37 @@
         <oleObject shapeId="1028" progId="Word.Document.8" r:id="rId6" dvAspect="DVASPECT_ICON"/>
       </mc:Fallback>
     </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject shapeId="1029" progId="Word.Document.8" r:id="rId8" dvAspect="DVASPECT_ICON">
+          <objectPr defaultSize="0" r:id="rId9">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>2077720</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>38735</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>3001645</xdr:colOff>
+                <xdr:row>6</xdr:row>
+                <xdr:rowOff>876935</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject shapeId="1029" progId="Word.Document.8" r:id="rId8" dvAspect="DVASPECT_ICON"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </oleObjects>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:A11"/>
   <sheetViews>

--- a/20170721周报/技术支撑服务人员周报日报-20170721.xlsx
+++ b/20170721周报/技术支撑服务人员周报日报-20170721.xlsx
@@ -12,63 +12,6 @@
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
-</file>
-
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>bolin</author>
-    <author>root</author>
-  </authors>
-  <commentList>
-    <comment ref="H2" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>bolin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-文档见附件
-</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H7" authorId="1">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>root:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-该文档可直接打开
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -222,10 +165,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -268,88 +211,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,9 +249,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -394,21 +313,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -416,6 +320,45 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -432,181 +375,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -649,34 +592,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -696,10 +622,27 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -730,16 +673,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -749,10 +692,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -761,136 +704,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -992,134 +935,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>2002790</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>67310</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>2926715</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>905510</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp>
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1027" name="Object 3" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1027"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="13623290" y="448310"/>
-              <a:ext cx="923925" cy="838200"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>3027680</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>78740</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>3951605</xdr:colOff>
-          <xdr:row>1</xdr:row>
-          <xdr:rowOff>916940</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp>
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1028" name="Object 4" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1028"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="14648180" y="459740"/>
-              <a:ext cx="923925" cy="838200"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>2077720</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>38735</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>3001645</xdr:colOff>
-          <xdr:row>6</xdr:row>
-          <xdr:rowOff>876935</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp>
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1029" name="Object 5" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1029"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="13698220" y="4266565"/>
-              <a:ext cx="923925" cy="838200"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1413,7 +1228,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1700,85 +1515,6 @@
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <oleObjects>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject shapeId="1027" progId="Word.Document.8" r:id="rId4" dvAspect="DVASPECT_ICON">
-          <objectPr defaultSize="0" r:id="rId5">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>2002790</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>67310</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>2926715</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>905510</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject shapeId="1027" progId="Word.Document.8" r:id="rId4" dvAspect="DVASPECT_ICON"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject shapeId="1028" progId="Word.Document.8" r:id="rId6" dvAspect="DVASPECT_ICON">
-          <objectPr defaultSize="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>3027680</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>78740</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>3951605</xdr:colOff>
-                <xdr:row>1</xdr:row>
-                <xdr:rowOff>916940</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject shapeId="1028" progId="Word.Document.8" r:id="rId6" dvAspect="DVASPECT_ICON"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject shapeId="1029" progId="Word.Document.8" r:id="rId8" dvAspect="DVASPECT_ICON">
-          <objectPr defaultSize="0" r:id="rId9">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>2077720</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>38735</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>3001645</xdr:colOff>
-                <xdr:row>6</xdr:row>
-                <xdr:rowOff>876935</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject shapeId="1029" progId="Word.Document.8" r:id="rId8" dvAspect="DVASPECT_ICON"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </oleObjects>
 </worksheet>
 </file>
 

--- a/20170721周报/技术支撑服务人员周报日报-20170721.xlsx
+++ b/20170721周报/技术支撑服务人员周报日报-20170721.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
-    <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="北京烽火" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -211,6 +211,134 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -227,137 +355,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -375,181 +375,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,24 +589,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -622,6 +604,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -633,17 +633,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -666,8 +655,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -686,16 +675,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -704,16 +704,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -722,118 +722,118 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -929,12 +929,135 @@
     <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>4090035</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>622300</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>4090035</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>622300</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1026" name="Object 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1026"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="15710535" y="5815330"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>1642745</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>207010</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>2566670</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>1045210</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1027" name="Object 3" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1027"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13263245" y="6339840"/>
+              <a:ext cx="923925" cy="838200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>2887345</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>197485</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>7</xdr:col>
+          <xdr:colOff>3811270</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>1035685</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1028" name="Object 4" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1028"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="14507845" y="6330315"/>
+              <a:ext cx="923925" cy="838200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1228,7 +1351,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1415,7 +1538,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" ht="51.75" spans="1:8">
+    <row r="8" ht="74" customHeight="1" spans="1:8">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -1441,7 +1564,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" ht="44.1" customHeight="1" spans="1:8">
+    <row r="9" ht="93" customHeight="1" spans="1:8">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
@@ -1515,6 +1638,85 @@
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject shapeId="1026" progId="Word.Document.8" r:id="rId3" dvAspect="DVASPECT_ICON">
+          <objectPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>4090035</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>622300</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>4090035</xdr:colOff>
+                <xdr:row>7</xdr:row>
+                <xdr:rowOff>622300</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject shapeId="1026" progId="Word.Document.8" r:id="rId3" dvAspect="DVASPECT_ICON"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject shapeId="1027" progId="Word.Document.8" r:id="rId5" dvAspect="DVASPECT_ICON">
+          <objectPr defaultSize="0" r:id="rId6">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>1642745</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>207010</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>2566670</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>1045210</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject shapeId="1027" progId="Word.Document.8" r:id="rId5" dvAspect="DVASPECT_ICON"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject shapeId="1028" progId="Word.Document.8" r:id="rId7" dvAspect="DVASPECT_ICON">
+          <objectPr defaultSize="0" r:id="rId8">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>2887345</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>197485</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>7</xdr:col>
+                <xdr:colOff>3811270</xdr:colOff>
+                <xdr:row>8</xdr:row>
+                <xdr:rowOff>1035685</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject shapeId="1028" progId="Word.Document.8" r:id="rId7" dvAspect="DVASPECT_ICON"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
 </worksheet>
 </file>
 

--- a/20170721周报/技术支撑服务人员周报日报-20170721.xlsx
+++ b/20170721周报/技术支撑服务人员周报日报-20170721.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\周报\weekReport\20170721周报\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="12630"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="1" r:id="rId1"/>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
   <si>
     <t>项目名称</t>
   </si>
@@ -68,82 +63,13 @@
   </si>
   <si>
     <t>杜智恒</t>
-  </si>
-  <si>
-    <t>代码</t>
-  </si>
-  <si>
-    <t>凌河源</t>
-  </si>
-  <si>
-    <t>陆晨曦</t>
-  </si>
-  <si>
-    <t>1.playlist相关接口重写和问题排查</t>
-  </si>
-  <si>
-    <t>赵小平</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.完成总部校园营销活动获取验证码接口开发
-2.完成总部校园营销活动领取奖品接口开发
-3.完成总部校园营销活动定时任务逻辑开发
-4.测试上述接口并解决问题
-</t>
-  </si>
-  <si>
-    <t>代码、文档</t>
-  </si>
-  <si>
-    <t>陈毅昌</t>
-  </si>
-  <si>
-    <t>1.对上一周开发的代码进行测试，并完成上线。
-2.在springboot和springcloud环境下迁移代码</t>
-  </si>
-  <si>
-    <t>王琪</t>
-  </si>
-  <si>
-    <t>1完成20170720内容的小组的版本负责
-2辅助其他组员开发需求
-3上线支撑</t>
-  </si>
-  <si>
-    <t>文档代码</t>
-  </si>
-  <si>
-    <t>范小燕</t>
-  </si>
-  <si>
-    <t>1.修改歌单首页筛选取数逻辑
-2.测试20号上线自己修改的功能是否实现
-3.分配的迁代码任务</t>
-  </si>
-  <si>
-    <t>罗健</t>
-  </si>
-  <si>
-    <t>1.MIGU2.0内容组件业务相关框架迁移工作；
-2.热门活动异省访问问题排查解决；</t>
-  </si>
-  <si>
-    <t>周小龙</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.播放列表相关接口问题排查测试                                                                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>1</t>
     </r>
@@ -151,12 +77,16 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>.尝试iputils 对请求IP进行二进制的位运算转换。     2.把转换的数值 和黑白IP名单参数进行比较。</t>
     </r>
+  </si>
+  <si>
+    <t>代码</t>
+  </si>
+  <si>
+    <t>凌河源</t>
   </si>
   <si>
     <t>1、接口调用对象返回码转换通用模块需求上线及验证
@@ -165,18 +95,80 @@
 4、总部校园营销活动领取奖品接口开发
 5、总部校园营销活动定时任务逻辑开发
 6、测试上述接口并解决问题</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>代码、文档</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆晨曦</t>
+  </si>
+  <si>
+    <t>1.playlist相关接口重写和问题排查</t>
+  </si>
+  <si>
+    <t>赵小平</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.完成总部校园营销活动获取验证码接口开发
+2.完成总部校园营销活动领取奖品接口开发
+3.完成总部校园营销活动定时任务逻辑开发
+4.测试上述接口并解决问题
+</t>
+  </si>
+  <si>
+    <t>陈毅昌</t>
+  </si>
+  <si>
+    <t>1.对上一周开发的代码进行测试，并完成上线。
+2.在springboot和springcloud环境下迁移代码</t>
+  </si>
+  <si>
+    <t>王琪</t>
+  </si>
+  <si>
+    <t>1完成20170720内容的小组的版本负责
+2辅助其他组员开发需求
+3上线支撑</t>
+  </si>
+  <si>
+    <t>文档代码</t>
+  </si>
+  <si>
+    <t>范小燕</t>
+  </si>
+  <si>
+    <t>1.修改歌单首页筛选取数逻辑
+2.测试20号上线自己修改的功能是否实现
+3.分配的迁代码任务</t>
+  </si>
+  <si>
+    <t>罗健</t>
+  </si>
+  <si>
+    <t>1.MIGU2.0内容组件业务相关框架迁移工作；
+2.热门活动异省访问问题排查解决；</t>
+  </si>
+  <si>
+    <t>周小龙</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.播放列表相关接口问题排查测试                                                                     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,13 +179,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -204,12 +190,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
@@ -229,35 +209,163 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -266,12 +374,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -305,13 +599,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -323,56 +859,100 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
@@ -388,39 +968,25 @@
           <xdr:row>7</xdr:row>
           <xdr:rowOff>619125</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="">
+        <xdr:sp>
           <xdr:nvSpPr>
             <xdr:cNvPr id="1026" name="Object 2" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="0"/>
+              <a:off x="15706725" y="5810885"/>
               <a:ext cx="0" cy="0"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -443,39 +1009,25 @@
           <xdr:row>8</xdr:row>
           <xdr:rowOff>1047750</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="">
+        <xdr:sp>
           <xdr:nvSpPr>
             <xdr:cNvPr id="1027" name="Object 3" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003040000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
+              <a:off x="13258800" y="6342380"/>
+              <a:ext cx="923925" cy="838200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -498,39 +1050,25 @@
           <xdr:row>8</xdr:row>
           <xdr:rowOff>1038225</xdr:rowOff>
         </xdr:to>
-        <xdr:sp macro="" textlink="">
+        <xdr:sp>
           <xdr:nvSpPr>
             <xdr:cNvPr id="1028" name="Object 4" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s1028"/>
                 </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004040000}"/>
-                </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvSpPr/>
           </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
+          <xdr:spPr>
             <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
+              <a:off x="14506575" y="6332855"/>
+              <a:ext cx="923925" cy="838200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
             </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -827,305 +1365,306 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="16.375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="10" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="15.75" style="10" customWidth="1"/>
-    <col min="5" max="5" width="21.625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="48.5" style="10" customWidth="1"/>
-    <col min="8" max="8" width="53.75" style="10" customWidth="1"/>
-    <col min="9" max="9" width="22.75" style="10" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="10"/>
+    <col min="1" max="1" width="16.375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="48.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="53.75" style="4" customWidth="1"/>
+    <col min="9" max="9" width="22.75" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="75.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+    <row r="2" ht="75.95" customHeight="1" spans="1:8">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="8">
         <v>42933</v>
       </c>
-      <c r="F2" s="7">
+      <c r="F2" s="8">
         <v>42937</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="34.9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
+    <row r="3" ht="34.9" customHeight="1" spans="1:8">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" ht="103.5" spans="1:8">
+      <c r="A4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" ht="17.25" spans="1:8">
+      <c r="A5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="8">
+        <v>42933</v>
+      </c>
+      <c r="F5" s="8">
+        <v>42937</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" ht="71.25" spans="1:8">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="8">
+        <v>42933</v>
+      </c>
+      <c r="F6" s="8">
+        <v>42937</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" ht="75.95" customHeight="1" spans="1:8">
+      <c r="A7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="8">
+        <v>42933</v>
+      </c>
+      <c r="F7" s="8">
+        <v>42937</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" ht="74.1" customHeight="1" spans="1:8">
+      <c r="A8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="8">
+        <v>42933</v>
+      </c>
+      <c r="F8" s="8">
+        <v>42937</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" ht="93" customHeight="1" spans="1:8">
+      <c r="A9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="8">
+        <v>42933</v>
+      </c>
+      <c r="F9" s="8">
+        <v>42937</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" ht="34.5" spans="1:8">
+      <c r="A10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" ht="17.25" spans="1:8">
+      <c r="A11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="8">
+        <v>42933</v>
+      </c>
+      <c r="F11" s="8">
+        <v>42937</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="103.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="7">
-        <v>42933</v>
-      </c>
-      <c r="F5" s="7">
-        <v>42937</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="9"/>
-    </row>
-    <row r="6" spans="1:8" ht="71.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="7">
-        <v>42933</v>
-      </c>
-      <c r="F6" s="7">
-        <v>42937</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="75.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="7">
-        <v>42933</v>
-      </c>
-      <c r="F7" s="7">
-        <v>42937</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="7">
-        <v>42933</v>
-      </c>
-      <c r="F8" s="7">
-        <v>42937</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="93" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="7">
-        <v>42933</v>
-      </c>
-      <c r="F9" s="7">
-        <v>42937</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="7">
-        <v>42933</v>
-      </c>
-      <c r="F11" s="7">
-        <v>42937</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="9"/>
+      <c r="H11" s="10"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Word.Document.8" dvAspect="DVASPECT_ICON" shapeId="1026" r:id="rId3">
+        <oleObject shapeId="1026" progId="Word.Document.8" r:id="rId3" dvAspect="DVASPECT_ICON">
           <objectPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
@@ -1145,12 +1684,12 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Word.Document.8" dvAspect="DVASPECT_ICON" shapeId="1026" r:id="rId3"/>
+        <oleObject shapeId="1026" progId="Word.Document.8" r:id="rId3" dvAspect="DVASPECT_ICON"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Word.Document.8" dvAspect="DVASPECT_ICON" shapeId="1027" r:id="rId5">
+        <oleObject shapeId="1027" progId="Word.Document.8" r:id="rId5" dvAspect="DVASPECT_ICON">
           <objectPr defaultSize="0" r:id="rId6">
             <anchor moveWithCells="1">
               <from>
@@ -1161,21 +1700,21 @@
               </from>
               <to>
                 <xdr:col>7</xdr:col>
-                <xdr:colOff>2552700</xdr:colOff>
+                <xdr:colOff>2562225</xdr:colOff>
                 <xdr:row>8</xdr:row>
-                <xdr:rowOff>1038225</xdr:rowOff>
+                <xdr:rowOff>1047750</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Word.Document.8" dvAspect="DVASPECT_ICON" shapeId="1027" r:id="rId5"/>
+        <oleObject shapeId="1027" progId="Word.Document.8" r:id="rId5" dvAspect="DVASPECT_ICON"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Word.Document.8" dvAspect="DVASPECT_ICON" shapeId="1028" r:id="rId7">
+        <oleObject shapeId="1028" progId="Word.Document.8" r:id="rId7" dvAspect="DVASPECT_ICON">
           <objectPr defaultSize="0" r:id="rId8">
             <anchor moveWithCells="1">
               <from>
@@ -1195,7 +1734,7 @@
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Word.Document.8" dvAspect="DVASPECT_ICON" shapeId="1028" r:id="rId7"/>
+        <oleObject shapeId="1028" progId="Word.Document.8" r:id="rId7" dvAspect="DVASPECT_ICON"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
@@ -1203,55 +1742,56 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A11"/>
+      <selection activeCell="A1" sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1">
       <c r="A3" s="2"/>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1">
       <c r="A5" s="2"/>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1">
       <c r="A6" s="2"/>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1">
       <c r="A7" s="2"/>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:1">
       <c r="A8" s="2"/>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:1">
       <c r="A9" s="2"/>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:1">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:1">
       <c r="A11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A11"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/20170721周报/技术支撑服务人员周报日报-20170721.xlsx
+++ b/20170721周报/技术支撑服务人员周报日报-20170721.xlsx
@@ -69,6 +69,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>1</t>
@@ -77,6 +78,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>.尝试iputils 对请求IP进行二进制的位运算转换。     2.把转换的数值 和黑白IP名单参数进行比较。</t>
@@ -163,10 +165,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -209,15 +211,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,76 +241,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,8 +284,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -338,34 +332,41 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -380,67 +381,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,115 +555,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,8 +598,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -624,17 +643,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -654,35 +667,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -703,10 +698,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -715,136 +710,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -879,14 +874,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
@@ -983,88 +978,6 @@
             <a:xfrm>
               <a:off x="15706725" y="5810885"/>
               <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>1638300</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>209550</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>2562225</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>1047750</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp>
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1027" name="Object 3" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1027"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="13258800" y="6342380"/>
-              <a:ext cx="923925" cy="838200"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>2886075</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>200025</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>7</xdr:col>
-          <xdr:colOff>3810000</xdr:colOff>
-          <xdr:row>8</xdr:row>
-          <xdr:rowOff>1038225</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp>
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1028" name="Object 4" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1028"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="14506575" y="6332855"/>
-              <a:ext cx="923925" cy="838200"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1360,17 +1273,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1479,7 +1391,7 @@
       <c r="G4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="10" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1552,7 +1464,7 @@
       <c r="F7" s="8">
         <v>42937</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="11" t="s">
         <v>25</v>
       </c>
       <c r="H7" s="10" t="s">
@@ -1592,7 +1504,7 @@
       <c r="B9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>29</v>
       </c>
       <c r="D9" s="6" t="s">
@@ -1604,11 +1516,11 @@
       <c r="F9" s="8">
         <v>42937</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="13" t="s">
         <v>30</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="34.5" spans="1:8">
@@ -1638,7 +1550,7 @@
       <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>33</v>
       </c>
       <c r="D11" s="6" t="s">
@@ -1687,62 +1599,12 @@
         <oleObject shapeId="1026" progId="Word.Document.8" r:id="rId3" dvAspect="DVASPECT_ICON"/>
       </mc:Fallback>
     </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject shapeId="1027" progId="Word.Document.8" r:id="rId5" dvAspect="DVASPECT_ICON">
-          <objectPr defaultSize="0" r:id="rId6">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>1638300</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>209550</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>2562225</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>1047750</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject shapeId="1027" progId="Word.Document.8" r:id="rId5" dvAspect="DVASPECT_ICON"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject shapeId="1028" progId="Word.Document.8" r:id="rId7" dvAspect="DVASPECT_ICON">
-          <objectPr defaultSize="0" r:id="rId8">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>2886075</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>200025</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>7</xdr:col>
-                <xdr:colOff>3810000</xdr:colOff>
-                <xdr:row>8</xdr:row>
-                <xdr:rowOff>1038225</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject shapeId="1028" progId="Word.Document.8" r:id="rId7" dvAspect="DVASPECT_ICON"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
   </oleObjects>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:A11"/>
   <sheetViews>

--- a/20170721周报/技术支撑服务人员周报日报-20170721.xlsx
+++ b/20170721周报/技术支撑服务人员周报日报-20170721.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
   <si>
     <t>项目名称</t>
   </si>
@@ -157,6 +157,13 @@
     <t xml:space="preserve">1.播放列表相关接口问题排查测试                                                                     </t>
   </si>
   <si>
+    <t>陈皓阳</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.环境搭建及安装软件             
+2.熟悉代码结构和管理流程。                                               </t>
+  </si>
+  <si>
     <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
   </si>
 </sst>
@@ -211,8 +218,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,20 +255,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -270,7 +264,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,6 +286,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -300,6 +332,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -308,56 +353,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -381,181 +388,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,11 +602,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,8 +620,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -629,30 +642,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -663,6 +652,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -684,11 +684,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -698,10 +705,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -710,136 +717,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1279,10 +1286,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1566,6 +1573,27 @@
         <v>34</v>
       </c>
       <c r="H11" s="10"/>
+    </row>
+    <row r="12" ht="38" customHeight="1" spans="2:8">
+      <c r="B12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="8">
+        <v>42936</v>
+      </c>
+      <c r="F12" s="8">
+        <v>42937</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1616,7 +1644,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/20170721周报/技术支撑服务人员周报日报-20170721.xlsx
+++ b/20170721周报/技术支撑服务人员周报日报-20170721.xlsx
@@ -172,10 +172,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -218,7 +218,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -241,17 +296,43 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -263,105 +344,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -388,181 +388,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,23 +620,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -652,17 +646,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -685,17 +668,34 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -705,10 +705,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -717,143 +717,143 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -889,6 +889,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
@@ -1557,7 +1560,7 @@
       <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="14" t="s">
         <v>33</v>
       </c>
       <c r="D11" s="6" t="s">
@@ -1578,7 +1581,7 @@
       <c r="B12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="14" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="6" t="s">

--- a/20170721周报/技术支撑服务人员周报日报-20170721.xlsx
+++ b/20170721周报/技术支撑服务人员周报日报-20170721.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="1" r:id="rId1"/>
@@ -85,9 +85,6 @@
     </r>
   </si>
   <si>
-    <t>代码</t>
-  </si>
-  <si>
     <t>凌河源</t>
   </si>
   <si>
@@ -125,6 +122,9 @@
 2.在springboot和springcloud环境下迁移代码</t>
   </si>
   <si>
+    <t>代码</t>
+  </si>
+  <si>
     <t>王琪</t>
   </si>
   <si>
@@ -172,10 +172,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -218,6 +218,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -226,15 +245,40 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -253,27 +297,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -296,43 +336,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -346,22 +361,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -388,37 +388,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,55 +532,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,79 +556,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -617,63 +617,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -699,16 +642,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -717,136 +717,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1292,7 +1292,7 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1380,7 +1380,7 @@
         <v>15</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" ht="103.5" spans="1:8">
@@ -1391,7 +1391,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>11</v>
@@ -1399,10 +1399,10 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="10" t="s">
         <v>18</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" ht="17.25" spans="1:8">
@@ -1413,7 +1413,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>11</v>
@@ -1425,7 +1425,7 @@
         <v>42937</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H5" s="10"/>
     </row>
@@ -1437,7 +1437,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>11</v>
@@ -1449,10 +1449,10 @@
         <v>42937</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" ht="75.95" customHeight="1" spans="1:8">
@@ -1463,7 +1463,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>11</v>
@@ -1475,10 +1475,10 @@
         <v>42937</v>
       </c>
       <c r="G7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="10" t="s">
         <v>25</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="8" ht="74.1" customHeight="1" spans="1:8">
@@ -1530,7 +1530,7 @@
         <v>30</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" ht="34.5" spans="1:8">
